--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,99 +43,108 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>hell</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -163,130 +172,154 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>friends</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>shopping</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -644,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +685,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -763,13 +796,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,31 +814,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4">
-        <v>0.9152542372881356</v>
-      </c>
-      <c r="L4">
-        <v>54</v>
-      </c>
-      <c r="M4">
-        <v>54</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -813,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,16 +867,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -855,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8047945205479452</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +946,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>0.8511749347258486</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="M7">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1046,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7826086956521739</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,16 +1067,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1055,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1096,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>0.8098591549295775</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>316</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>316</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1105,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1113,13 +1146,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7647058823529411</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1131,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7631578947368421</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1184,28 +1217,28 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>0.8076923076923077</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L12">
+        <v>85</v>
+      </c>
+      <c r="M12">
+        <v>85</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>21</v>
-      </c>
-      <c r="M12">
-        <v>21</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,13 +1246,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1231,31 +1264,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.796875</v>
       </c>
       <c r="L13">
+        <v>102</v>
+      </c>
+      <c r="M13">
+        <v>102</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>26</v>
-      </c>
-      <c r="M13">
-        <v>26</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1263,13 +1296,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,19 +1314,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,13 +1346,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.582010582010582</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C15">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1331,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1355,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.55</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1381,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K16">
-        <v>0.7674418604651163</v>
+        <v>0.7875</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1405,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,13 +1446,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5406976744186046</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C17">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1431,19 +1464,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K17">
-        <v>0.7578125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1455,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1463,13 +1496,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5333333333333333</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,19 +1514,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1513,13 +1546,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5254237288135594</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1531,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>0.746031746031746</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1555,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1563,13 +1596,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4901960784313725</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,19 +1614,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1605,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1613,13 +1646,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4871794871794872</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K21">
-        <v>0.7358490566037735</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L21">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1655,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1663,13 +1696,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4838709677419355</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,19 +1714,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K22">
-        <v>0.7222222222222222</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1705,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1713,13 +1746,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4832214765100671</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C23">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1731,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K23">
-        <v>0.6558823529411765</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1755,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1763,49 +1796,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4615384615384616</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C24">
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <v>72</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>77</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L24">
+        <v>45</v>
+      </c>
+      <c r="M24">
+        <v>45</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>18</v>
-      </c>
-      <c r="D24">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>21</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24">
-        <v>0.625</v>
-      </c>
-      <c r="L24">
-        <v>25</v>
-      </c>
-      <c r="M24">
-        <v>25</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1813,13 +1846,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4594594594594595</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1831,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K25">
-        <v>0.62</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1855,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1863,13 +1896,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.44</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1881,19 +1914,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1905,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,49 +1946,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4193548387096774</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27">
+        <v>0.675</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>27</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>13</v>
-      </c>
-      <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>18</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27">
-        <v>0.602510460251046</v>
-      </c>
-      <c r="L27">
-        <v>144</v>
-      </c>
-      <c r="M27">
-        <v>144</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1963,13 +1996,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3928571428571428</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1981,19 +2014,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2005,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2013,13 +2046,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3454545454545455</v>
+        <v>0.425</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2031,19 +2064,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K29">
-        <v>0.5957446808510638</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2055,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2063,38 +2096,38 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3333333333333333</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>44</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
         <v>30</v>
       </c>
-      <c r="D30">
+      <c r="M30">
         <v>30</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>60</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30">
-        <v>0.5932203389830508</v>
-      </c>
-      <c r="L30">
-        <v>175</v>
-      </c>
-      <c r="M30">
-        <v>175</v>
-      </c>
       <c r="N30">
         <v>1</v>
       </c>
@@ -2105,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2113,13 +2146,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3272727272727273</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2131,19 +2164,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K31">
-        <v>0.5571428571428572</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2155,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2163,13 +2196,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2987012987012987</v>
+        <v>0.4</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2181,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K32">
-        <v>0.5416666666666666</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2205,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2213,13 +2246,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2341269841269841</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C33">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2231,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K33">
-        <v>0.5416666666666666</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L33">
         <v>13</v>
@@ -2255,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2263,13 +2296,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2125</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2281,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K34">
-        <v>0.5393258426966292</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L34">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2305,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2313,13 +2346,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1635388739946381</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C35">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2331,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>312</v>
+        <v>58</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K35">
-        <v>0.5357142857142857</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2355,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2363,13 +2396,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.07333333333333333</v>
+        <v>0.2375</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2381,19 +2414,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2405,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2413,31 +2446,31 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.01637931034482759</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E37">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1141</v>
+        <v>195</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K37">
-        <v>0.4285714285714285</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L37">
         <v>18</v>
@@ -2455,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2463,37 +2496,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01355713363460297</v>
+        <v>0.1823056300268097</v>
       </c>
       <c r="C38">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D38">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E38">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3056</v>
+        <v>305</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K38">
-        <v>0.4117647058823529</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2505,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2513,37 +2546,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.008907641819034223</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.6599999999999999</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>2114</v>
+        <v>272</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K39">
-        <v>0.3972602739726027</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2555,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2563,141 +2596,213 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005671077504725898</v>
+        <v>0.01813471502590673</v>
       </c>
       <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>0.12</v>
+      </c>
+      <c r="F40">
+        <v>0.88</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1137</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L40">
+        <v>37</v>
+      </c>
+      <c r="M40">
+        <v>37</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.01741935483870968</v>
+      </c>
+      <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>61</v>
+      </c>
+      <c r="E41">
+        <v>0.11</v>
+      </c>
+      <c r="F41">
+        <v>0.89</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>3046</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <v>14</v>
+      </c>
+      <c r="M41">
+        <v>14</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.009345794392523364</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42">
+        <v>0.13</v>
+      </c>
+      <c r="F42">
+        <v>0.87</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2120</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="L42">
+        <v>21</v>
+      </c>
+      <c r="M42">
+        <v>21</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.005698005698005698</v>
+      </c>
+      <c r="C43">
         <v>18</v>
       </c>
-      <c r="D40">
-        <v>45</v>
-      </c>
-      <c r="E40">
-        <v>0.6</v>
-      </c>
-      <c r="F40">
-        <v>0.4</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>3156</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K40">
-        <v>0.3777777777777778</v>
-      </c>
-      <c r="L40">
-        <v>17</v>
-      </c>
-      <c r="M40">
-        <v>17</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="L41">
-        <v>28</v>
-      </c>
-      <c r="M41">
-        <v>28</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42">
-        <v>0.265625</v>
-      </c>
-      <c r="L42">
-        <v>17</v>
-      </c>
-      <c r="M42">
-        <v>17</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="D43">
+        <v>60</v>
+      </c>
+      <c r="E43">
+        <v>0.7</v>
+      </c>
+      <c r="F43">
+        <v>0.3</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3141</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K43">
-        <v>0.2622950819672131</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K44">
-        <v>0.2280701754385965</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2709,41 +2814,41 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K45">
-        <v>0.1904761904761905</v>
+        <v>0.359375</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N45">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K46">
-        <v>0.04807692307692308</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L46">
         <v>20</v>
@@ -2761,33 +2866,241 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>396</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="K47">
-        <v>0.008482563619227144</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N47">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>3156</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K48">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L48">
+        <v>25</v>
+      </c>
+      <c r="M48">
+        <v>25</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K49">
+        <v>0.3114754098360656</v>
+      </c>
+      <c r="L49">
+        <v>19</v>
+      </c>
+      <c r="M49">
+        <v>19</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="L50">
+        <v>13</v>
+      </c>
+      <c r="M50">
+        <v>13</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51">
+        <v>20</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K52">
+        <v>0.04498269896193772</v>
+      </c>
+      <c r="L52">
+        <v>13</v>
+      </c>
+      <c r="M52">
+        <v>13</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K53">
+        <v>0.03125</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>13</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54">
+        <v>0.02108768035516093</v>
+      </c>
+      <c r="L54">
+        <v>19</v>
+      </c>
+      <c r="M54">
+        <v>19</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K55">
+        <v>0.01319509896324222</v>
+      </c>
+      <c r="L55">
+        <v>42</v>
+      </c>
+      <c r="M55">
+        <v>60</v>
+      </c>
+      <c r="N55">
+        <v>0.7</v>
+      </c>
+      <c r="O55">
+        <v>0.3</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3141</v>
       </c>
     </row>
   </sheetData>
